--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\savutapalli\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramesh Manoharan\Downloads\fordbatch1-feature\fordbatch1-feature\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,6 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Prod Backlog'!$A$1:$I$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sprint Backlog'!$A$1:$I$14</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="102">
   <si>
     <t>ID</t>
   </si>
@@ -1770,10 +1771,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B290623-B1CF-4904-AA20-CC73F6F7105D}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2292,51 +2293,51 @@
     </row>
     <row r="40" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D40" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" s="2">
+        <v>3</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H40" s="2">
-        <v>3</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>17</v>
-      </c>
-      <c r="B41" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41" t="s">
-        <v>97</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="F41" s="1" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="H41" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>82</v>
@@ -2344,7 +2345,7 @@
     </row>
     <row r="42" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B42" t="s">
         <v>34</v>
@@ -2356,21 +2357,21 @@
         <v>35</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="H42" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B43" t="s">
         <v>34</v>
@@ -2379,13 +2380,13 @@
         <v>99</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H43" s="2">
         <v>2</v>
@@ -2394,24 +2395,24 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B44" t="s">
         <v>34</v>
       </c>
       <c r="D44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H44" s="2">
         <v>2</v>
@@ -2420,134 +2421,314 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H45" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="H46" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+      <c r="C47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>17</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" t="s">
+        <v>97</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H56" s="2">
+        <v>3</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
         <v>27</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B66" t="s">
         <v>11</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D66" t="s">
         <v>97</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H47" s="2">
-        <v>2</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+      <c r="H66" s="2">
+        <v>2</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
         <v>28</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B76" t="s">
         <v>11</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D76" t="s">
         <v>97</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F76" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G76" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H48" s="2">
-        <v>3</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>31</v>
-      </c>
-      <c r="B49" t="s">
-        <v>56</v>
-      </c>
-      <c r="D49" t="s">
-        <v>98</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H49" s="2">
-        <v>3</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>82</v>
+      <c r="H76" s="2">
+        <v>3</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
